--- a/version_documentation.xlsx
+++ b/version_documentation.xlsx
@@ -953,7 +953,7 @@
   <dimension ref="B1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1045,14 +1045,14 @@
         <v>21</v>
       </c>
       <c r="G5" s="20">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H5" s="20">
         <v>40</v>
       </c>
       <c r="I5" s="29">
         <f t="shared" ref="I5:I22" si="0">G5+H5</f>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1072,14 +1072,14 @@
         <v>22</v>
       </c>
       <c r="G6" s="20">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H6" s="20">
         <v>45</v>
       </c>
       <c r="I6" s="29">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1">
